--- a/Manual_Tescase/Unit_Test.xlsx
+++ b/Manual_Tescase/Unit_Test.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25330"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Precision 5510\Downloads\KIEMTHUUNGDUNG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PHP\htdocs\myproject\DACK-NHOM4\Manual_Tescase\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38C5CEF5-FC9B-4002-979C-59C355D35DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CBEAE2A-5C19-47D8-8B89-8210F07D729D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="6" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cart_Func" sheetId="2" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="438">
   <si>
     <t>TestCase#</t>
   </si>
@@ -1586,12 +1586,15 @@
     <t>1) Click on "Facebook" button
 2) Liên kết với tài khoản google</t>
   </si>
+  <si>
+    <t>CN8</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1693,6 +1696,10 @@
       <sz val="8"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
     </font>
   </fonts>
   <fills count="11">
@@ -2288,9 +2295,9 @@
   </sheetPr>
   <dimension ref="A1:W101"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -2299,11 +2306,12 @@
     <col min="2" max="2" width="21.6640625" customWidth="1"/>
     <col min="3" max="3" width="33.6640625" customWidth="1"/>
     <col min="4" max="4" width="35" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
     <col min="6" max="6" width="10.88671875" customWidth="1"/>
     <col min="7" max="7" width="34.44140625" customWidth="1"/>
     <col min="8" max="8" width="33.6640625" customWidth="1"/>
-    <col min="9" max="23" width="17.33203125" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="10" max="23" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:23" ht="12.75" customHeight="1">
@@ -4959,8 +4967,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:I91"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -5198,8 +5206,8 @@
       </c>
     </row>
     <row r="9" spans="1:9" ht="52.8">
-      <c r="A9" s="33" t="s">
-        <v>292</v>
+      <c r="A9" s="15" t="s">
+        <v>437</v>
       </c>
       <c r="B9" s="46"/>
       <c r="C9" s="33" t="s">
@@ -5474,6 +5482,7 @@
   <mergeCells count="1">
     <mergeCell ref="B2:B9"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -5483,8 +5492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <dimension ref="A1:W99"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="13.2"/>
@@ -5588,7 +5597,7 @@
       <c r="V2" s="3"/>
       <c r="W2" s="3"/>
     </row>
-    <row r="3" spans="1:23" ht="105.6">
+    <row r="3" spans="1:23" ht="103.8" customHeight="1">
       <c r="A3" s="15" t="s">
         <v>315</v>
       </c>
@@ -5629,7 +5638,7 @@
       <c r="V3" s="3"/>
       <c r="W3" s="3"/>
     </row>
-    <row r="4" spans="1:23" ht="105.6">
+    <row r="4" spans="1:23" ht="97.8" customHeight="1">
       <c r="A4" s="15" t="s">
         <v>314</v>
       </c>
@@ -8257,9 +8266,9 @@
   </sheetPr>
   <dimension ref="A1:W104"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G15" sqref="G15"/>
+    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="12.75" customHeight="1"/>
@@ -8816,7 +8825,7 @@
       <c r="V13" s="3"/>
       <c r="W13" s="3"/>
     </row>
-    <row r="14" spans="1:23" ht="60" customHeight="1">
+    <row r="14" spans="1:23" ht="51" customHeight="1">
       <c r="A14" s="15" t="s">
         <v>162</v>
       </c>
@@ -8857,7 +8866,7 @@
       <c r="V14" s="3"/>
       <c r="W14" s="3"/>
     </row>
-    <row r="15" spans="1:23" ht="82.2" customHeight="1">
+    <row r="15" spans="1:23" ht="53.4" customHeight="1">
       <c r="A15" s="15" t="s">
         <v>163</v>
       </c>
@@ -8898,7 +8907,7 @@
       <c r="V15" s="3"/>
       <c r="W15" s="3"/>
     </row>
-    <row r="16" spans="1:23" ht="69" customHeight="1">
+    <row r="16" spans="1:23" ht="81" customHeight="1">
       <c r="A16" s="15" t="s">
         <v>164</v>
       </c>
@@ -8941,7 +8950,7 @@
       <c r="V16" s="3"/>
       <c r="W16" s="3"/>
     </row>
-    <row r="17" spans="1:23" ht="78" customHeight="1">
+    <row r="17" spans="1:23" ht="67.8" customHeight="1">
       <c r="A17" s="15" t="s">
         <v>165</v>
       </c>
@@ -8982,7 +8991,7 @@
       <c r="V17" s="3"/>
       <c r="W17" s="3"/>
     </row>
-    <row r="18" spans="1:23" ht="76.2" customHeight="1">
+    <row r="18" spans="1:23" ht="39.6" customHeight="1">
       <c r="A18" s="15" t="s">
         <v>166</v>
       </c>
@@ -9023,7 +9032,7 @@
       <c r="V18" s="3"/>
       <c r="W18" s="3"/>
     </row>
-    <row r="19" spans="1:23" ht="60" customHeight="1">
+    <row r="19" spans="1:23" ht="37.799999999999997" customHeight="1">
       <c r="A19" s="33" t="s">
         <v>167</v>
       </c>
@@ -9062,7 +9071,7 @@
       <c r="V19" s="3"/>
       <c r="W19" s="3"/>
     </row>
-    <row r="20" spans="1:23" ht="54.6" customHeight="1">
+    <row r="20" spans="1:23" ht="40.799999999999997" customHeight="1">
       <c r="A20" s="15" t="s">
         <v>168</v>
       </c>
@@ -11876,8 +11885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:W9"/>
   <sheetViews>
-    <sheetView zoomScale="62" zoomScaleNormal="62" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -12161,8 +12170,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -12674,7 +12683,7 @@
   <dimension ref="A1:I101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="13.2"/>
@@ -13158,12 +13167,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <ReferenceId xmlns="1eae0aca-010c-4f3a-b6bb-4fce62a24dc7" xsi:nil="true"/>
+    <TaxCatchAll xmlns="e69cc7f2-b93e-474e-8998-24c5e08b3afe" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1eae0aca-010c-4f3a-b6bb-4fce62a24dc7">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -13362,30 +13374,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <ReferenceId xmlns="1eae0aca-010c-4f3a-b6bb-4fce62a24dc7" xsi:nil="true"/>
-    <TaxCatchAll xmlns="e69cc7f2-b93e-474e-8998-24c5e08b3afe" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1eae0aca-010c-4f3a-b6bb-4fce62a24dc7">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9B3FB03-63B6-4DD3-AE27-4EF411488525}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B3B4407-8BB2-4737-983A-A8CEB7C0D4F4}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39DF521B-0835-4ECB-A0BA-E4DFF902D69E}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -13397,6 +13394,35 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="1eae0aca-010c-4f3a-b6bb-4fce62a24dc7"/>
+    <ds:schemaRef ds:uri="e69cc7f2-b93e-474e-8998-24c5e08b3afe"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8B3B4407-8BB2-4737-983A-A8CEB7C0D4F4}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="1eae0aca-010c-4f3a-b6bb-4fce62a24dc7"/>
+    <ds:schemaRef ds:uri="e69cc7f2-b93e-474e-8998-24c5e08b3afe"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9B3FB03-63B6-4DD3-AE27-4EF411488525}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>